--- a/refs/heads/main/StructureDefinition-VHcareHBsAg.xlsx
+++ b/refs/heads/main/StructureDefinition-VHcareHBsAg.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T12:43:51+00:00</t>
+    <t>2023-06-26T10:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
